--- a/documents/03_ファイル構成一覧表_E2.xlsx
+++ b/documents/03_ファイル構成一覧表_E2.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D13FEFB-F059-420C-B1F2-43BC392EE086}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70EDB2F-808E-4FBD-80C6-EA9E76A76F33}"/>
   <bookViews>
     <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="第2版" sheetId="2" r:id="rId1"/>
+    <sheet name="第1版" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">第1版!$C$2:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">第2版!$C$2:$N$26</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -134,25 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>servlet</t>
-  </si>
-  <si>
-    <t>LoginServlet.java</t>
-  </si>
-  <si>
-    <t>ログイン画面初期表示、ログイン処理用</t>
-  </si>
-  <si>
     <t>着手済み</t>
     <rPh sb="0" eb="2">
       <t>チャクシュ</t>
@@ -163,10 +146,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>servlet</t>
+  </si>
+  <si>
     <t>HomeServlet.java</t>
   </si>
   <si>
-    <t>ユーザーデータ表示、編集用</t>
+    <t>ユーザーデータ表示、編集用サーブレット</t>
+  </si>
+  <si>
+    <t>100％</t>
+  </si>
+  <si>
+    <t>着手済み</t>
+  </si>
+  <si>
+    <t>岸本</t>
   </si>
   <si>
     <t>待ち状態</t>
@@ -182,6 +180,268 @@
     <t>OrderServlet.java</t>
   </si>
   <si>
+    <t>注文データ表示、編集用サーブレット</t>
+  </si>
+  <si>
+    <t>MenuServlet.java</t>
+  </si>
+  <si>
+    <t>モバイルオーダー画面表示用サーブレット</t>
+  </si>
+  <si>
+    <t>HandedServlet.java</t>
+  </si>
+  <si>
+    <t>注文内容表示用サーブレット</t>
+  </si>
+  <si>
+    <t>HandedUpdate.java</t>
+  </si>
+  <si>
+    <t>受渡状況更新用サーブレット</t>
+  </si>
+  <si>
+    <t>CartServlet.java</t>
+  </si>
+  <si>
+    <t>カート情報登録用サーブレット</t>
+  </si>
+  <si>
+    <t>ProductServlet.java</t>
+  </si>
+  <si>
+    <t>商品データ取得・遷移用サーブレット</t>
+  </si>
+  <si>
+    <t>ProductActionServlet.java</t>
+  </si>
+  <si>
+    <t>商品データ追加・更新・削除用サーブレット</t>
+  </si>
+  <si>
+    <t>FlagToggleServlet.java</t>
+  </si>
+  <si>
+    <t>受渡状況取得用サーブレット</t>
+  </si>
+  <si>
+    <t>dao</t>
+  </si>
+  <si>
+    <t>ProductsDAO.java</t>
+  </si>
+  <si>
+    <t>productsテーブルアクセス用DAO</t>
+  </si>
+  <si>
+    <t>OrdersDAO.java</t>
+  </si>
+  <si>
+    <t>ordersテーブルアクセス用DAO</t>
+  </si>
+  <si>
+    <t>OrderListDAO.java</t>
+  </si>
+  <si>
+    <t>orders+order_productテーブルアクセス用DAO</t>
+  </si>
+  <si>
+    <t>SuperDAO.java</t>
+  </si>
+  <si>
+    <t>DAO親クラス</t>
+  </si>
+  <si>
+    <t>OrderProductsDAO.java</t>
+  </si>
+  <si>
+    <t>order_productテーブルアクセス用DAO</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Product.java</t>
+  </si>
+  <si>
+    <t>productsテーブルのデータ保持用クラス</t>
+  </si>
+  <si>
+    <t>Order.java</t>
+  </si>
+  <si>
+    <t>ordersテーブルのデータ保持用クラス</t>
+  </si>
+  <si>
+    <t>OrderProduct.java</t>
+  </si>
+  <si>
+    <t>order_productテーブルのデータ保持用クラス</t>
+  </si>
+  <si>
+    <t>OrderList.java</t>
+  </si>
+  <si>
+    <t>order+order_productテーブル結合用クラス</t>
+  </si>
+  <si>
+    <t>OrderDTO.java</t>
+  </si>
+  <si>
+    <t>orderテーブル接続用クラス</t>
+  </si>
+  <si>
+    <t>CartItemDTO.java</t>
+  </si>
+  <si>
+    <t>カート状況保持用クラス</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>home.jsp</t>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+  </si>
+  <si>
+    <t>中村</t>
+  </si>
+  <si>
+    <t>orderList.jsp</t>
+  </si>
+  <si>
+    <t>注文管理画面</t>
+  </si>
+  <si>
+    <t>杉尾</t>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+  </si>
+  <si>
+    <t>モバイルオーダーのメニュー画面</t>
+  </si>
+  <si>
+    <t>product.jsp</t>
+  </si>
+  <si>
+    <t>商品の詳細画面</t>
+  </si>
+  <si>
+    <t>渕田</t>
+  </si>
+  <si>
+    <t>cart.jsp</t>
+  </si>
+  <si>
+    <t>カート画面</t>
+  </si>
+  <si>
+    <t>中嶋</t>
+  </si>
+  <si>
+    <t>wait.jsp</t>
+  </si>
+  <si>
+    <t>整理番号確認画面</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+  </si>
+  <si>
+    <t>home.js</t>
+  </si>
+  <si>
+    <t>管理者画面用</t>
+  </si>
+  <si>
+    <t>中嶋・岸本</t>
+  </si>
+  <si>
+    <t>handed.js</t>
+  </si>
+  <si>
+    <t>注文内容表示用</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>user.css</t>
+  </si>
+  <si>
+    <t>管理者用画面共通</t>
+  </si>
+  <si>
+    <t>home.css</t>
+  </si>
+  <si>
+    <t>ホーム画面用</t>
+  </si>
+  <si>
+    <t>order.css</t>
+  </si>
+  <si>
+    <t>注文管理画面用</t>
+  </si>
+  <si>
+    <t>customer.css</t>
+  </si>
+  <si>
+    <t>モバイルオーダー画面共通</t>
+  </si>
+  <si>
+    <t>menu.css</t>
+  </si>
+  <si>
+    <t>メニュー画面用</t>
+  </si>
+  <si>
+    <t>product.css</t>
+  </si>
+  <si>
+    <t>商品の詳細画面用</t>
+  </si>
+  <si>
+    <t>cart.css</t>
+  </si>
+  <si>
+    <t>カート画面用</t>
+  </si>
+  <si>
+    <t>wait.css</t>
+  </si>
+  <si>
+    <t>整理番号確認画面用</t>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+  </si>
+  <si>
+    <t>ログイン画面初期表示、ログイン処理用</t>
+  </si>
+  <si>
+    <t>ユーザーデータ表示、編集用</t>
+  </si>
+  <si>
     <t>注文データ表示、編集用</t>
   </si>
   <si>
@@ -211,9 +471,6 @@
     <t>ファンクションカスタマイズ用</t>
   </si>
   <si>
-    <t>MenuServlet.java</t>
-  </si>
-  <si>
     <t>モバイルオーダー画面表示用</t>
   </si>
   <si>
@@ -223,111 +480,27 @@
     <t>リコメンテイター画面表示用</t>
   </si>
   <si>
-    <t>HandedServlet.java</t>
-  </si>
-  <si>
-    <t>注文内容表示用</t>
-  </si>
-  <si>
-    <t>dao</t>
-  </si>
-  <si>
     <t>UsersDAO.java</t>
   </si>
   <si>
     <t>usersテーブルアクセス用DAO</t>
   </si>
   <si>
-    <t>ProductsDAO.java</t>
-  </si>
-  <si>
-    <t>productsテーブルアクセス用DAO</t>
-  </si>
-  <si>
-    <t>OrdersDAO.java</t>
-  </si>
-  <si>
-    <t>ordersテーブルアクセス用DAO</t>
-  </si>
-  <si>
-    <t>OrderProductsDAO.java</t>
-  </si>
-  <si>
-    <t>order_productテーブルアクセス用DAO</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>User.java</t>
   </si>
   <si>
     <t>usersテーブルのデータ保持用クラス</t>
   </si>
   <si>
-    <t>Product.java</t>
-  </si>
-  <si>
-    <t>productsテーブルのデータ保持用クラス</t>
-  </si>
-  <si>
-    <t>Order.java</t>
-  </si>
-  <si>
-    <t>ordersテーブルのデータ保持用クラス</t>
-  </si>
-  <si>
-    <t>OrderProduct.java</t>
-  </si>
-  <si>
-    <t>order_productテーブルのデータ保持用クラス</t>
-  </si>
-  <si>
-    <t>jsp</t>
-  </si>
-  <si>
-    <t>WebContent/WEB-INF/jsp</t>
-  </si>
-  <si>
     <t>login.jsp</t>
   </si>
   <si>
     <t>ログイン画面</t>
   </si>
   <si>
-    <t>渕田</t>
-  </si>
-  <si>
-    <t>home.jsp</t>
-  </si>
-  <si>
-    <t>ホーム画面</t>
-  </si>
-  <si>
-    <t>中村</t>
-  </si>
-  <si>
     <t>order.jsp</t>
   </si>
   <si>
-    <t>注文管理画面</t>
-  </si>
-  <si>
-    <t>menu.jsp</t>
-  </si>
-  <si>
-    <t>モバイルオーダーのメニュー画面</t>
-  </si>
-  <si>
-    <t>杉尾</t>
-  </si>
-  <si>
-    <t>product.jsp</t>
-  </si>
-  <si>
-    <t>商品の詳細画面</t>
-  </si>
-  <si>
     <t>recommend.jsp</t>
   </si>
   <si>
@@ -340,27 +513,6 @@
     <t>リコメンテイター結果画面</t>
   </si>
   <si>
-    <t>cart.jsp</t>
-  </si>
-  <si>
-    <t>カート画面</t>
-  </si>
-  <si>
-    <t>中嶋</t>
-  </si>
-  <si>
-    <t>wait.jsp</t>
-  </si>
-  <si>
-    <t>整理番号確認画面</t>
-  </si>
-  <si>
-    <t>javascript</t>
-  </si>
-  <si>
-    <t>WebContent/js</t>
-  </si>
-  <si>
     <t>main.js</t>
   </si>
   <si>
@@ -385,54 +537,9 @@
     <t>リコメンテイター画面用</t>
   </si>
   <si>
-    <t>handed.js</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>WebContent/css</t>
-  </si>
-  <si>
-    <t>user.css</t>
-  </si>
-  <si>
-    <t>管理者用画面共通</t>
-  </si>
-  <si>
     <t>login.css</t>
   </si>
   <si>
-    <t>home.css</t>
-  </si>
-  <si>
-    <t>ホーム画面用</t>
-  </si>
-  <si>
-    <t>order.css</t>
-  </si>
-  <si>
-    <t>注文管理画面用</t>
-  </si>
-  <si>
-    <t>customer.css</t>
-  </si>
-  <si>
-    <t>モバイルオーダー画面共通</t>
-  </si>
-  <si>
-    <t>menu.css</t>
-  </si>
-  <si>
-    <t>メニュー画面用</t>
-  </si>
-  <si>
-    <t>product.css</t>
-  </si>
-  <si>
-    <t>商品の詳細画面用</t>
-  </si>
-  <si>
     <t>recommend.css</t>
   </si>
   <si>
@@ -440,25 +547,13 @@
   </si>
   <si>
     <t>リコメンテイター結果画面用</t>
-  </si>
-  <si>
-    <t>cart.css</t>
-  </si>
-  <si>
-    <t>カート画面用</t>
-  </si>
-  <si>
-    <t>wait.css</t>
-  </si>
-  <si>
-    <t>整理番号確認画面用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +564,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -559,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +700,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,11 +1051,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158BC0F6-C632-4DEC-9B02-7E7CC2D7AFAE}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="0" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="6.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:C38" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I3" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J3" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K3" s="18">
+        <v>45831</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I4" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J4" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K4" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I5" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J5" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K5" s="18">
+        <v>45831</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="C6" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I6" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J6" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K6" s="18">
+        <v>45833</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I7" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J7" s="18">
+        <v>45833</v>
+      </c>
+      <c r="K7" s="18">
+        <v>45833</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I8" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J8" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K8" s="18">
+        <v>45832</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I9" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J9" s="18">
+        <v>45821</v>
+      </c>
+      <c r="K9" s="18">
+        <v>45831</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I10" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J10" s="18">
+        <v>45831</v>
+      </c>
+      <c r="K10" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I11" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J11" s="18">
+        <v>45828</v>
+      </c>
+      <c r="K11" s="18">
+        <v>45831</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I12" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J12" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K12" s="18">
+        <v>45831</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I13" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J13" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K13" s="18">
+        <v>45833</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I14" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J14" s="18">
+        <v>45828</v>
+      </c>
+      <c r="K14" s="18">
+        <v>45828</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I15" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J15" s="18">
+        <v>45821</v>
+      </c>
+      <c r="K15" s="18">
+        <v>45821</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I16" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J16" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K16" s="18">
+        <v>45828</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I17" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J17" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K17" s="18">
+        <v>45827</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I18" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J18" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K18" s="18">
+        <v>45827</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I19" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J19" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K19" s="18">
+        <v>45820</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I20" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J20" s="18">
+        <v>45828</v>
+      </c>
+      <c r="K20" s="18">
+        <v>45828</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I21" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J21" s="18">
+        <v>45828</v>
+      </c>
+      <c r="K21" s="18">
+        <v>45828</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I22" s="19">
+        <v>45832</v>
+      </c>
+      <c r="J22" s="18">
+        <v>45832</v>
+      </c>
+      <c r="K22" s="18">
+        <v>45832</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I23" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J23" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K23" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I24" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J24" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K24" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I25" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J25" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K25" s="18">
+        <v>45832</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I26" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J26" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K26" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I27" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J27" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K27" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="18">
+        <v>45820</v>
+      </c>
+      <c r="I28" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J28" s="18">
+        <v>45820</v>
+      </c>
+      <c r="K28" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="20">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="18">
+        <v>45827</v>
+      </c>
+      <c r="I29" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J29" s="18">
+        <v>45827</v>
+      </c>
+      <c r="K29" s="18">
+        <v>45828</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="18">
+        <v>45827</v>
+      </c>
+      <c r="I30" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J30" s="18">
+        <v>45827</v>
+      </c>
+      <c r="K30" s="18">
+        <v>45831</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="18">
+        <v>45821</v>
+      </c>
+      <c r="I31" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J31" s="18">
+        <v>45821</v>
+      </c>
+      <c r="K31" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I32" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J32" s="18">
+        <v>45824</v>
+      </c>
+      <c r="K32" s="18">
+        <v>45834</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="20">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="18">
+        <v>45824</v>
+      </c>
+      <c r="I33" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J33" s="18">
+        <v>45824</v>
+      </c>
+      <c r="K33" s="22">
+        <v>45834</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="18">
+        <v>45821</v>
+      </c>
+      <c r="I34" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J34" s="18">
+        <v>45821</v>
+      </c>
+      <c r="K34" s="19">
+        <v>45831</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="20">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="18">
+        <v>45821</v>
+      </c>
+      <c r="I35" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J35" s="18">
+        <v>45821</v>
+      </c>
+      <c r="K35" s="19">
+        <v>45832</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="20">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="18">
+        <v>45821</v>
+      </c>
+      <c r="I36" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J36" s="18">
+        <v>45821</v>
+      </c>
+      <c r="K36" s="19">
+        <v>45832</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="18">
+        <v>45827</v>
+      </c>
+      <c r="I37" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J37" s="18">
+        <v>45827</v>
+      </c>
+      <c r="K37" s="19">
+        <v>45834</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="18">
+        <v>45827</v>
+      </c>
+      <c r="I38" s="19">
+        <v>45834</v>
+      </c>
+      <c r="J38" s="18">
+        <v>45827</v>
+      </c>
+      <c r="K38" s="19">
+        <v>45834</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:N26" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M38" xr:uid="{9DE6DE5A-BE3C-4AB4-A4B3-92FE3EC3A174}">
+      <formula1>$A$2:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -978,7 +2606,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C3" s="11">
         <f>ROW()-2</f>
@@ -991,22 +2619,26 @@
         <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="H3" s="8">
+        <v>45820</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:C43" si="0">ROW()-2</f>
@@ -1019,18 +2651,22 @@
         <v>14</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="H4" s="8">
+        <v>45820</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
@@ -1050,19 +2686,23 @@
         <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H5" s="8">
+        <v>45820</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
@@ -1075,22 +2715,26 @@
         <v>14</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="H6" s="8">
+        <v>45820</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
@@ -1103,18 +2747,22 @@
         <v>14</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H7" s="8">
+        <v>45820</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="11">
@@ -1128,18 +2776,22 @@
         <v>14</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H8" s="8">
+        <v>45820</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="C9" s="11">
@@ -1153,18 +2805,22 @@
         <v>14</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H9" s="8">
+        <v>45820</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="C10" s="11">
@@ -1178,18 +2834,22 @@
         <v>14</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="H10" s="8">
+        <v>45820</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="C11" s="11">
@@ -1200,21 +2860,25 @@
         <v>13</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="H11" s="8">
+        <v>45820</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="11">
@@ -1225,7 +2889,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>38</v>
@@ -1233,13 +2897,17 @@
       <c r="G12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>45820</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="11">
@@ -1250,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>40</v>
@@ -1258,13 +2926,17 @@
       <c r="G13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>45820</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="C14" s="11">
@@ -1275,21 +2947,25 @@
         <v>13</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="H14" s="8">
+        <v>45820</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="C15" s="11">
@@ -1300,21 +2976,25 @@
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H15" s="8">
+        <v>45820</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="C16" s="11">
@@ -1325,21 +3005,25 @@
         <v>13</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="H16" s="8">
+        <v>45820</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="11">
@@ -1350,21 +3034,25 @@
         <v>13</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H17" s="8">
+        <v>45820</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="11">
@@ -1375,21 +3063,25 @@
         <v>13</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="H18" s="8">
+        <v>45820</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="11">
@@ -1397,16 +3089,16 @@
         <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H19" s="8">
         <v>45820</v>
@@ -1417,7 +3109,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -1426,16 +3118,16 @@
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H20" s="8">
         <v>45820</v>
@@ -1446,7 +3138,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:14">
@@ -1455,16 +3147,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H21" s="8">
         <v>45820</v>
@@ -1475,7 +3167,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -1484,16 +3176,16 @@
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H22" s="8">
         <v>45820</v>
@@ -1504,7 +3196,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -1513,16 +3205,16 @@
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H23" s="8">
         <v>45820</v>
@@ -1533,7 +3225,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -1542,16 +3234,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="H24" s="8">
         <v>45820</v>
@@ -1562,7 +3254,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -1571,16 +3263,16 @@
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="H25" s="8">
         <v>45820</v>
@@ -1591,7 +3283,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="3:14">
@@ -1600,16 +3292,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H26" s="8">
         <v>45820</v>
@@ -1620,7 +3312,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="3:14">
@@ -1629,16 +3321,16 @@
         <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" s="8">
         <v>45820</v>
@@ -1649,7 +3341,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:14">
@@ -1658,18 +3350,20 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="H28" s="8">
+        <v>45827</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1683,18 +3377,20 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="H29" s="8">
+        <v>45827</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1708,18 +3404,20 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="H30" s="8">
+        <v>45827</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -1733,18 +3431,20 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="H31" s="8">
+        <v>45827</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1758,18 +3458,20 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="H32" s="8">
+        <v>45827</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -1783,18 +3485,20 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8">
+        <v>45821</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -1808,18 +3512,20 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="H34" s="8">
+        <v>45821</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1833,24 +3539,28 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="H35" s="8">
+        <v>45824</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="1">
@@ -1858,24 +3568,28 @@
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="H36" s="8">
+        <v>45824</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="1">
@@ -1883,24 +3597,28 @@
         <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="H37" s="8">
+        <v>45821</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="1">
@@ -1908,24 +3626,28 @@
         <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="H38" s="8">
+        <v>45821</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="39" spans="3:14">
       <c r="C39" s="1">
@@ -1933,24 +3655,28 @@
         <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="H39" s="8">
+        <v>45821</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="1">
@@ -1958,24 +3684,28 @@
         <v>38</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="H40" s="8">
+        <v>45821</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="1">
@@ -1983,24 +3713,28 @@
         <v>39</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="H41" s="8">
+        <v>45821</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="1">
@@ -2008,24 +3742,28 @@
         <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="H42" s="8">
+        <v>45827</v>
+      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="3:14">
       <c r="C43" s="1">
@@ -2033,24 +3771,28 @@
         <v>41</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="H43" s="8">
+        <v>45827</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
@@ -2071,6 +3813,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2241,23 +3992,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
 </file>